--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_8_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_8_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.86000000000045</v>
+        <v>24.66000000000042</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.427939581511455e-16</v>
+        <v>1.364329369739056e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>62.87878578532651</v>
+        <v>57.59772675983201</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[55.05515706068718, 70.70241450996585]</t>
+          <t>[49.29350404214529, 65.90194947751874]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.402552876377425</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.50318447288881, 1.7547634641672722]</t>
+          <t>[1.2641844311742707, 1.540921321580579]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>62.61817160187668</v>
+        <v>58.75131015945689</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[57.41359932998917, 67.8227438737642]</t>
+          <t>[53.750092460192924, 63.752527858720846]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.41481481481514</v>
+        <v>19.15531531531564</v>
       </c>
       <c r="X2" t="n">
-        <v>17.91711711711744</v>
+        <v>18.61225225225257</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.91251251251285</v>
+        <v>19.69837837837871</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.65000000000057</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.427939581511455e-16</v>
+        <v>1.364329369739056e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>53.93355993972582</v>
+        <v>60.02794618592772</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[45.640012721803096, 62.22710715764854]</t>
+          <t>[51.49677053962682, 68.55912183222861]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.207605648468503</v>
+        <v>2.03150035457358</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.0566582537014257, 2.35855304323558]</t>
+          <t>[1.8931319093704255, 2.169868799776734]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.41140818443623</v>
+        <v>58.51806041973698</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[48.1604419457583, 56.66237442311415]</t>
+          <t>[53.97281136688414, 63.06330947258983]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.63783783783821</v>
+        <v>17.24848848848886</v>
       </c>
       <c r="X3" t="n">
-        <v>16.02162162162198</v>
+        <v>16.68714714714751</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.25405405405444</v>
+        <v>17.80982982983021</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_8_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_8_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.66000000000042</v>
+        <v>24.47000000000039</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.364329369739056e-16</v>
+        <v>1.475379434717816e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>57.59772675983201</v>
+        <v>51.041443067252</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.29350404214529, 65.90194947751874]</t>
+          <t>[43.86830367630617, 58.214582458197825]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.402552876377425</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2641844311742707, 1.540921321580579]</t>
+          <t>[1.4654476241970391, 1.7673424137311953]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.75131015945689</v>
+        <v>54.69218585558033</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.750092460192924, 63.752527858720846]</t>
+          <t>[49.98720607733328, 59.397165633827385]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.15531531531564</v>
+        <v>18.17491491491521</v>
       </c>
       <c r="X2" t="n">
-        <v>18.61225225225257</v>
+        <v>17.58704704704732</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.69837837837871</v>
+        <v>18.76278278278309</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.49000000000055</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.364329369739056e-16</v>
+        <v>1.475379434717816e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>60.02794618592772</v>
+        <v>52.76561714330892</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[51.49677053962682, 68.55912183222861]</t>
+          <t>[44.14117493775079, 61.390059348867055]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.03150035457358</v>
+        <v>2.534658337130504</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.8931319093704255, 2.169868799776734]</t>
+          <t>[2.35855304323558, 2.7107636310254275]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.51806041973698</v>
+        <v>58.90456121398098</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.97281136688414, 63.06330947258983]</t>
+          <t>[54.317687619425264, 63.4914348085367]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.24848848848886</v>
+        <v>15.41009009009045</v>
       </c>
       <c r="X3" t="n">
-        <v>16.68714714714751</v>
+        <v>14.68612612612646</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.80982982983021</v>
+        <v>16.13405405405443</v>
       </c>
     </row>
   </sheetData>
